--- a/medicine/Psychotrope/Réduction_des_risques_liés_à_la_consommation_d'alcool/Réduction_des_risques_liés_à_la_consommation_d'alcool.xlsx
+++ b/medicine/Psychotrope/Réduction_des_risques_liés_à_la_consommation_d'alcool/Réduction_des_risques_liés_à_la_consommation_d'alcool.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9duction_des_risques_li%C3%A9s_%C3%A0_la_consommation_d%27alcool</t>
+          <t>Réduction_des_risques_liés_à_la_consommation_d'alcool</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Réduction des Risques et des Dommages liés à l'alcool (RDRDA) est la déclinaison de la politique de santé publique de réduction des risques au produit alcool. La loi de modernisation du système de santé du 26 janvier 2016 prévoit désormais l'extension du concept à tous les produits psychoactifs dont l'alcool[1]. 
-En 2020 la Direction générale de la santé et la MILDECA[2] confient au Fonds Actions Addictions (désormais addict'aide[3]) la rédaction d'un état des lieux sur la RdRDA. Le rapport « La réduction des risques et des dommages liés à l’alcool[4] » (RdRDA) edt rédigé par Guylaine Benech et publié en 2021.
-Plusieurs programmes sont référencés comme pistes nouvelles : Le programme canadien  Alcoochoix  porté en France par la Fédération addiction,  Choisitaconso [5] développé  par Association Addictions France ou encore des expérimentations régionales comme le programme IACA[6] développé par Santé! Alcool et Réduction des risques[7] et soutenu par le Fonds de Lutte contre les Addictions[8] de l'Assurance Maladie.
-En juin 2022 la plateforme SOLALE[9] soutenue par la Mildeca[10] et l'assurance maladie est mise en ligne. Elle propose des ressources professionnelles  sur le concept de RDR Alcool.
-En novembre 2023, la Haute Autorité de Santé[11] publie un dossier de recommandations de bonne pratique "Agir en premier recours pour réduire le risque alcool - Repérer tous les usages et accompagner chaque personne[11]"  destiné aux intervenants de premier recours. Ce dossier apporte des clés de lecture pour envisager le risque alcool comme un sujet de santé pour tous :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Réduction des Risques et des Dommages liés à l'alcool (RDRDA) est la déclinaison de la politique de santé publique de réduction des risques au produit alcool. La loi de modernisation du système de santé du 26 janvier 2016 prévoit désormais l'extension du concept à tous les produits psychoactifs dont l'alcool. 
+En 2020 la Direction générale de la santé et la MILDECA confient au Fonds Actions Addictions (désormais addict'aide) la rédaction d'un état des lieux sur la RdRDA. Le rapport « La réduction des risques et des dommages liés à l’alcool » (RdRDA) edt rédigé par Guylaine Benech et publié en 2021.
+Plusieurs programmes sont référencés comme pistes nouvelles : Le programme canadien  Alcoochoix  porté en France par la Fédération addiction,  Choisitaconso  développé  par Association Addictions France ou encore des expérimentations régionales comme le programme IACA développé par Santé! Alcool et Réduction des risques et soutenu par le Fonds de Lutte contre les Addictions de l'Assurance Maladie.
+En juin 2022 la plateforme SOLALE soutenue par la Mildeca et l'assurance maladie est mise en ligne. Elle propose des ressources professionnelles  sur le concept de RDR Alcool.
+En novembre 2023, la Haute Autorité de Santé publie un dossier de recommandations de bonne pratique "Agir en premier recours pour réduire le risque alcool - Repérer tous les usages et accompagner chaque personne"  destiné aux intervenants de premier recours. Ce dossier apporte des clés de lecture pour envisager le risque alcool comme un sujet de santé pour tous :
 Faire de l’alcool un sujet de santé comme les autres, qui concerne tous les usagers du système de santé, tout au long de leur vie, et pas seulement en cas de complication apparente ou d’usage problématique.
 Favoriser l’accompagnement de tous les usagers du système de santé en portant à la connaissance des personnes et de leur entourage la réalité des risques liés à l’alcool et toutes les possibilités de les diminuer.
 Œuvrer au pouvoir d’agir (empowerment) des personnes face à l’alcool afin qu’ils puissent en diminuer les risques, pour eux-mêmes et leur entourage.
